--- a/GUIDtoServiceMapping.xlsx
+++ b/GUIDtoServiceMapping.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13177EB-2912-4953-A65C-6D84C9A554B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFC803-4F8C-4382-8DCA-D0384FE8A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2AC44BC6-16DF-4218-9DEA-A97B4828A221}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6635" uniqueCount="1356">
   <si>
     <t>GUID</t>
   </si>
@@ -4091,6 +4091,18 @@
   </si>
   <si>
     <t>Don't Change This Column</t>
+  </si>
+  <si>
+    <t>ecc74eae-eeb7-4ad5-9c88-e8b2bfca75b8</t>
+  </si>
+  <si>
+    <t>79d69417-9e27-4a13-b7a5-80c513145533</t>
+  </si>
+  <si>
+    <t>b1a78878-c813-4a90-b7e3-2181deecd9c0</t>
+  </si>
+  <si>
+    <t>9da49a6d-707a-48a1-b44a-53dcde5267f8</t>
   </si>
 </sst>
 </file>
@@ -4477,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985EE565-B5E2-4656-8AF6-EFFA7151B3EA}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,665 +4535,962 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v xml:space="preserve">AI Builder capacity Per User add-on </v>
+        <v>AccessControlServiceS2S</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v xml:space="preserve">AI Builder capacity Per User add-on </v>
+        <v>AccessControlServiceS2S</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v xml:space="preserve">APP CONNECT </v>
+        <v xml:space="preserve">AI Builder capacity Per User add-on </v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 </v>
+        <v xml:space="preserve">AI Builder capacity Per User add-on </v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v xml:space="preserve">AZURE INFORMATION PROTECTION PREMIUM P1 </v>
+        <v xml:space="preserve">APP CONNECT </v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(A10,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v xml:space="preserve">CLOUD APP SECURITY DISCOVERY </v>
+        <v xml:space="preserve">AZURE ACTIVE DIRECTORY PREMIUM P1 </v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(A11,'GUID to Service Mapping'!A:B,2,FALSE)</f>
+        <v xml:space="preserve">AZURE INFORMATION PROTECTION PREMIUM P1 </v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,'GUID to Service Mapping'!A:B,2,FALSE)</f>
+        <v xml:space="preserve">CLOUD APP SECURITY DISCOVERY </v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,'GUID to Service Mapping'!A:B,2,FALSE)</f>
         <v xml:space="preserve">Common Data Service </v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="e">
-        <f>VLOOKUP(A12,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="e">
-        <f>VLOOKUP(A13,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="e">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="str">
         <f>VLOOKUP(A14,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Common Data Service </v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="e">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="str">
         <f>VLOOKUP(A15,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Common Data Service </v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="e">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="str">
         <f>VLOOKUP(A16,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="e">
+        <v xml:space="preserve">COMMON DATA SERVICE </v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="str">
         <f>VLOOKUP(A17,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="e">
+        <v xml:space="preserve">Common Data Service - P2 </v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="str">
         <f>VLOOKUP(A18,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="e">
+        <v xml:space="preserve">Common Data Service for CCI Bots </v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="str">
         <f>VLOOKUP(A19,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="e">
+        <v xml:space="preserve">Common Data Service for Project </v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="str">
         <f>VLOOKUP(A20,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="e">
+        <v xml:space="preserve">COMMON DATA SERVICE FOR PROJECT P1 </v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="str">
         <f>VLOOKUP(A21,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="e">
+        <v xml:space="preserve">Common Data Service for Teams </v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="str">
         <f>VLOOKUP(A22,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="e">
+        <v xml:space="preserve">COMMUNICATIONS CREDITS </v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="str">
         <f>VLOOKUP(A23,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="e">
+        <v xml:space="preserve">DOMESTIC AND INTERNATIONAL CALLING PLAN </v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="str">
         <f>VLOOKUP(A24,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="e">
+        <v xml:space="preserve">DOMESTIC CALLING PLAN </v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="str">
         <f>VLOOKUP(A25,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="e">
+        <v xml:space="preserve">Dynamics 365 AI for Customer Service Virtual Agents Viral </v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="str">
         <f>VLOOKUP(A26,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="e">
+        <v xml:space="preserve">Dynamics 365 Customer Voice </v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="str">
         <f>VLOOKUP(A27,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="e">
+        <v xml:space="preserve">Dynamics 365 for Talent: Onboard </v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="str">
         <f>VLOOKUP(A28,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="e">
+        <v xml:space="preserve">DYNAMICS 365 FOR TALENT: ONBOARD </v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="str">
         <f>VLOOKUP(A29,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="e">
+        <v xml:space="preserve">DYNAMICS 365 P1 TRIAL FOR INFORMATION WORKERS </v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="str">
         <f>VLOOKUP(A30,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="e">
+        <v xml:space="preserve">Exchange Foundation </v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="str">
         <f>VLOOKUP(A31,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="e">
+        <v xml:space="preserve">EXCHANGE ONLINE (PLAN 2) </v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="str">
         <f>VLOOKUP(A32,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="e">
+        <v xml:space="preserve">Flow for CCI Bots </v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="str">
         <f>VLOOKUP(A33,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="e">
+        <v xml:space="preserve">Flow for Project </v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="str">
         <f>VLOOKUP(A34,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="e">
+        <v xml:space="preserve">FLOW FREE </v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="str">
         <f>VLOOKUP(A35,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="e">
+        <v xml:space="preserve">Flow P2 Viral </v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="str">
         <f>VLOOKUP(A36,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="e">
+        <v xml:space="preserve">Flow per user plan </v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="str">
         <f>VLOOKUP(A37,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="e">
+        <v xml:space="preserve">Information Protection and Governance Analytics – Standard </v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="str">
         <f>VLOOKUP(A38,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="e">
+        <v xml:space="preserve">Information Protection for Office 365 - Standard </v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="str">
         <f>VLOOKUP(A39,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="e">
+        <v xml:space="preserve">Insights by MyAnalytics </v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="str">
         <f>VLOOKUP(A40,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" t="e">
+        <v xml:space="preserve">Microsoft 365 Apps for enterprise </v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="str">
         <f>VLOOKUP(A41,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="e">
+        <v xml:space="preserve">Microsoft 365 Audio Conferencing </v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="str">
         <f>VLOOKUP(A42,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="e">
+        <v xml:space="preserve">MICROSOFT 365 DOMESTIC CALLING PLAN (120 min) </v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="str">
         <f>VLOOKUP(A43,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="e">
+        <v xml:space="preserve">Microsoft 365 Lighthouse (Plan 1) </v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="str">
         <f>VLOOKUP(A44,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="e">
+        <v xml:space="preserve">Microsoft 365 Lighthouse (Plan 2) </v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="str">
         <f>VLOOKUP(A45,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" t="e">
+        <v xml:space="preserve">Microsoft 365 Phone Standard Resource Account </v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="str">
         <f>VLOOKUP(A46,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="e">
+        <v xml:space="preserve">Microsoft 365 Phone System </v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="str">
         <f>VLOOKUP(A47,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="e">
+        <v xml:space="preserve">MICROSOFT AZURE ACTIVE DIRECTORY RIGHTS </v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="str">
         <f>VLOOKUP(A48,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">MICROSOFT AZURE MULTI-FACTOR AUTHENTICATION </v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="e">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="str">
         <f>VLOOKUP(A49,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Azure Rights Management Service </v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="e">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="str">
         <f>VLOOKUP(A50,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Bookings </v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="e">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="str">
         <f>VLOOKUP(A51,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">MICROSOFT BUSINESS CENTER </v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="e">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="str">
         <f>VLOOKUP(A52,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Defender for Endpoint Plan 1 </v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="e">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="str">
         <f>VLOOKUP(A53,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Forms (Plan E3) </v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="e">
+      <c r="A54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" t="str">
         <f>VLOOKUP(A54,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Forms (Plan E5) </v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="e">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" t="str">
         <f>VLOOKUP(A55,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Intune </v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="e">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="str">
         <f>VLOOKUP(A56,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Kaizala Pro </v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="e">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="str">
         <f>VLOOKUP(A57,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Planner </v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B58" t="e">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="str">
         <f>VLOOKUP(A58,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Search </v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" t="e">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="str">
         <f>VLOOKUP(A59,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft StaffHub </v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="e">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="str">
         <f>VLOOKUP(A60,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">MICROSOFT STREAM </v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="e">
+      <c r="A61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="str">
         <f>VLOOKUP(A61,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Stream for Office 365 E3 </v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="e">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="str">
         <f>VLOOKUP(A62,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Teams </v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B63" t="e">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="str">
         <f>VLOOKUP(A63,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Microsoft Teams Audio Conferencing with dial-out to select geographies </v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B64" t="e">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="str">
         <f>VLOOKUP(A64,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Nucleus </v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="e">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="str">
         <f>VLOOKUP(A65,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Office for the web </v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" t="e">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="str">
         <f>VLOOKUP(A66,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">OneDrive for business Basic </v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="e">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="str">
         <f>VLOOKUP(A67,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Apps for Office 365 </v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B68" t="e">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="str">
         <f>VLOOKUP(A68,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Apps per User Plan </v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B69" t="e">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="str">
         <f>VLOOKUP(A69,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Automate for Dynamics 365 Customer Voice </v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="e">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" t="str">
         <f>VLOOKUP(A70,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Automate for Office 365 </v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" t="e">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="str">
         <f>VLOOKUP(A71,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Automate for Power Apps per User Plan </v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B72" t="e">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="str">
         <f>VLOOKUP(A72,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">POWER AUTOMATE FOR PROJECT P1 </v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B73" t="e">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="str">
         <f>VLOOKUP(A73,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power BI (free) </v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B74" t="e">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="str">
         <f>VLOOKUP(A74,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power BI Pro </v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B75" t="e">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="str">
         <f>VLOOKUP(A75,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Pages Internal User </v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B76" t="e">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="B76" t="str">
         <f>VLOOKUP(A76,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Power Virtual Agents for Office 365 </v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B77" t="e">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="str">
         <f>VLOOKUP(A77,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">PowerApps Trial </v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B78" t="e">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" t="str">
         <f>VLOOKUP(A78,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Project for Office (Plan E3) </v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" t="e">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" t="str">
         <f>VLOOKUP(A79,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Project Online Desktop Client </v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" t="e">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="str">
         <f>VLOOKUP(A80,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="e">
+        <v xml:space="preserve">Project Online Essentials </v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="str">
         <f>VLOOKUP(A81,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" t="e">
+        <v xml:space="preserve">Project Online Service </v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="str">
         <f>VLOOKUP(A82,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" t="e">
+        <v xml:space="preserve">PROJECT P1 </v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="str">
         <f>VLOOKUP(A83,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" t="e">
+        <v xml:space="preserve">Project P3 </v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="str">
         <f>VLOOKUP(A84,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" t="e">
+        <v xml:space="preserve">SharePoint (Plan 2) </v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="str">
         <f>VLOOKUP(A85,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" t="e">
+        <v xml:space="preserve">SHAREPOINTSTANDARD </v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="str">
         <f>VLOOKUP(A86,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" t="e">
+        <v xml:space="preserve">Skype for Business Online (Plan 2) </v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" t="str">
         <f>VLOOKUP(A87,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" t="e">
+        <v xml:space="preserve">Sway </v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="str">
         <f>VLOOKUP(A88,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" t="e">
+        <v xml:space="preserve">Teams Room Basic </v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="str">
         <f>VLOOKUP(A89,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" t="e">
+        <v xml:space="preserve">Teams Room Pro </v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="str">
         <f>VLOOKUP(A90,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="e">
+        <v xml:space="preserve">Teams Room Standard </v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B91" t="str">
         <f>VLOOKUP(A91,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" t="e">
+        <v>Teams Rooms Premium</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="str">
         <f>VLOOKUP(A92,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" t="e">
+        <v xml:space="preserve">To-Do (Plan 2) </v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="str">
         <f>VLOOKUP(A93,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" t="e">
+        <v xml:space="preserve">Universal Print </v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94" t="str">
         <f>VLOOKUP(A94,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="e">
+        <v xml:space="preserve">Visio Desktop App </v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="str">
         <f>VLOOKUP(A95,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" t="e">
+        <v xml:space="preserve">Visio web app </v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" t="str">
         <f>VLOOKUP(A96,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Viva Engage Core </v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="e">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="str">
         <f>VLOOKUP(A97,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Viva Learning Seeded </v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="e">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="str">
         <f>VLOOKUP(A98,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Whiteboard (Plan 2) </v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B99" t="e">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" t="str">
         <f>VLOOKUP(A99,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Whiteboard (Plan 3) </v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" t="e">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" t="str">
         <f>VLOOKUP(A100,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Windows 10/11 Enterprise (Original) </v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B101" t="e">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="str">
         <f>VLOOKUP(A101,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Windows 365 Enterprise 2 vCPU, 4 GB, 128 GB </v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B102" t="e">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="str">
         <f>VLOOKUP(A102,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Windows 365 Enterprise 4 vCPU, 16 GB, 256 GB </v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B103" t="e">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="str">
         <f>VLOOKUP(A103,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Windows Autopatch </v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B104" t="e">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="str">
         <f>VLOOKUP(A104,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Windows Store Service </v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B105" t="e">
+      <c r="A105" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" t="str">
         <f>VLOOKUP(A105,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Windows Update for Business Deployment Service </v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B106" t="e">
+      <c r="A106" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" t="str">
         <f>VLOOKUP(A106,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>WindowsAzure</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B107" t="e">
+      <c r="A107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" t="str">
         <f>VLOOKUP(A107,'GUID to Service Mapping'!A:B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">YAMMER_ENTERPRISE </v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1352</v>
+      </c>
       <c r="B108" t="e">
         <f>VLOOKUP(A108,'GUID to Service Mapping'!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1353</v>
+      </c>
       <c r="B109" t="e">
         <f>VLOOKUP(A109,'GUID to Service Mapping'!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1354</v>
+      </c>
       <c r="B110" t="e">
         <f>VLOOKUP(A110,'GUID to Service Mapping'!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1355</v>
+      </c>
       <c r="B111" t="e">
         <f>VLOOKUP(A111,'GUID to Service Mapping'!A:B,2,FALSE)</f>
         <v>#N/A</v>
@@ -6059,7 +6368,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:B2" xr:uid="{985EE565-B5E2-4656-8AF6-EFFA7151B3EA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B109">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B256">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
